--- a/Resources/Normalisation.xlsx
+++ b/Resources/Normalisation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchan\Documents\Sparta Global\CodeAlong\Assignment\PlanningResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchan\Documents\Sparta Global\CodeAlong\Assignment\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287AC82-D7AF-4578-8135-A6CA31C0A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6D75CA-784F-42B6-8B55-940A22202FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D64CD4D8-DB5B-4155-B078-1ABA991075A7}"/>
+    <workbookView xWindow="7200" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{D64CD4D8-DB5B-4155-B078-1ABA991075A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>Normalisation</t>
   </si>
@@ -87,9 +87,6 @@
     <t>RecordID</t>
   </si>
   <si>
-    <t>PrimaryElement</t>
-  </si>
-  <si>
     <t>SizeId</t>
   </si>
   <si>
@@ -166,6 +163,36 @@
   </si>
   <si>
     <t>CounterTacticsDescription</t>
+  </si>
+  <si>
+    <t>ElementWeakness</t>
+  </si>
+  <si>
+    <t>ElementID</t>
+  </si>
+  <si>
+    <t>ElementName</t>
+  </si>
+  <si>
+    <t>AilmentWeakness</t>
+  </si>
+  <si>
+    <t>WeaponAilment</t>
+  </si>
+  <si>
+    <t>AilmentID</t>
+  </si>
+  <si>
+    <t>AilmentName</t>
+  </si>
+  <si>
+    <t>ElementWeaknessID</t>
+  </si>
+  <si>
+    <t>WeaponElementID</t>
+  </si>
+  <si>
+    <t>PrimaryElementWeaknessID</t>
   </si>
 </sst>
 </file>
@@ -536,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A4B970-33B5-4197-A1F2-13574CCCED12}">
-  <dimension ref="E4:H48"/>
+  <dimension ref="E4:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +602,7 @@
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -606,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
@@ -617,13 +644,13 @@
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -631,27 +658,27 @@
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -659,35 +686,35 @@
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -715,10 +742,10 @@
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -726,35 +753,35 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
@@ -762,35 +789,35 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
@@ -801,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
@@ -812,60 +839,66 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
@@ -873,12 +906,12 @@
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -886,10 +919,10 @@
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -900,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -919,23 +952,29 @@
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.25">
@@ -943,20 +982,26 @@
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.25">
@@ -969,7 +1014,7 @@
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
         <v>8</v>
@@ -977,27 +1022,61 @@
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Normalisation.xlsx
+++ b/Resources/Normalisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchan\Documents\Sparta Global\CodeAlong\Assignment\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6D75CA-784F-42B6-8B55-940A22202FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E62A3C-38BC-4000-B91B-249AA48012EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{D64CD4D8-DB5B-4155-B078-1ABA991075A7}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A4B970-33B5-4197-A1F2-13574CCCED12}">
   <dimension ref="E4:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
